--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Timp3-Kdr.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Timp3-Kdr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Kdr</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>9.03434965166764</v>
+        <v>86.43264233333333</v>
       </c>
       <c r="H2">
-        <v>9.03434965166764</v>
+        <v>259.297927</v>
       </c>
       <c r="I2">
-        <v>0.09447657007089819</v>
+        <v>0.4989038832435519</v>
       </c>
       <c r="J2">
-        <v>0.09447657007089819</v>
+        <v>0.4989038832435519</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>32.2492471506313</v>
+        <v>127.6999736666667</v>
       </c>
       <c r="N2">
-        <v>32.2492471506313</v>
+        <v>383.099921</v>
       </c>
       <c r="O2">
-        <v>0.8869022057599736</v>
+        <v>0.9554352891750322</v>
       </c>
       <c r="P2">
-        <v>0.8869022057599736</v>
+        <v>0.9554352891750322</v>
       </c>
       <c r="Q2">
-        <v>291.3509747618495</v>
+        <v>11037.44614990709</v>
       </c>
       <c r="R2">
-        <v>291.3509747618495</v>
+        <v>99337.01534916378</v>
       </c>
       <c r="S2">
-        <v>0.08379147838851631</v>
+        <v>0.4766703759573495</v>
       </c>
       <c r="T2">
-        <v>0.08379147838851631</v>
+        <v>0.4766703759573496</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>9.03434965166764</v>
+        <v>86.43264233333333</v>
       </c>
       <c r="H3">
-        <v>9.03434965166764</v>
+        <v>259.297927</v>
       </c>
       <c r="I3">
-        <v>0.09447657007089819</v>
+        <v>0.4989038832435519</v>
       </c>
       <c r="J3">
-        <v>0.09447657007089819</v>
+        <v>0.4989038832435519</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.41958075203849</v>
+        <v>0.4321196666666667</v>
       </c>
       <c r="N3">
-        <v>0.41958075203849</v>
+        <v>1.296359</v>
       </c>
       <c r="O3">
-        <v>0.01153909400548846</v>
+        <v>0.003233065495828321</v>
       </c>
       <c r="P3">
-        <v>0.01153909400548846</v>
+        <v>0.003233065495828321</v>
       </c>
       <c r="Q3">
-        <v>3.790639221025378</v>
+        <v>37.34924459419922</v>
       </c>
       <c r="R3">
-        <v>3.790639221025378</v>
+        <v>336.143201347793</v>
       </c>
       <c r="S3">
-        <v>0.001090174023364211</v>
+        <v>0.001612988930649489</v>
       </c>
       <c r="T3">
-        <v>0.001090174023364211</v>
+        <v>0.001612988930649489</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>9.03434965166764</v>
+        <v>86.43264233333333</v>
       </c>
       <c r="H4">
-        <v>9.03434965166764</v>
+        <v>259.297927</v>
       </c>
       <c r="I4">
-        <v>0.09447657007089819</v>
+        <v>0.4989038832435519</v>
       </c>
       <c r="J4">
-        <v>0.09447657007089819</v>
+        <v>0.4989038832435519</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.28076905806601</v>
+        <v>4.77305</v>
       </c>
       <c r="N4">
-        <v>3.28076905806601</v>
+        <v>14.31915</v>
       </c>
       <c r="O4">
-        <v>0.09022602297030229</v>
+        <v>0.03571136528892854</v>
       </c>
       <c r="P4">
-        <v>0.09022602297030229</v>
+        <v>0.03571136528892854</v>
       </c>
       <c r="Q4">
-        <v>29.63961479694063</v>
+        <v>412.5473234891167</v>
       </c>
       <c r="R4">
-        <v>29.63961479694063</v>
+        <v>3712.925911402051</v>
       </c>
       <c r="S4">
-        <v>0.008524245181372233</v>
+        <v>0.01781653881857543</v>
       </c>
       <c r="T4">
-        <v>0.008524245181372233</v>
+        <v>0.01781653881857544</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>9.03434965166764</v>
+        <v>86.43264233333333</v>
       </c>
       <c r="H5">
-        <v>9.03434965166764</v>
+        <v>259.297927</v>
       </c>
       <c r="I5">
-        <v>0.09447657007089819</v>
+        <v>0.4989038832435519</v>
       </c>
       <c r="J5">
-        <v>0.09447657007089819</v>
+        <v>0.4989038832435519</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.412075094186404</v>
+        <v>0.751186</v>
       </c>
       <c r="N5">
-        <v>0.412075094186404</v>
+        <v>2.253558</v>
       </c>
       <c r="O5">
-        <v>0.01133267726423549</v>
+        <v>0.00562028004021099</v>
       </c>
       <c r="P5">
-        <v>0.01133267726423549</v>
+        <v>0.00562028004021099</v>
       </c>
       <c r="Q5">
-        <v>3.722830483623849</v>
+        <v>64.92699086380733</v>
       </c>
       <c r="R5">
-        <v>3.722830483623849</v>
+        <v>584.342917774266</v>
       </c>
       <c r="S5">
-        <v>0.001070672477645419</v>
+        <v>0.002803979536977489</v>
       </c>
       <c r="T5">
-        <v>0.001070672477645419</v>
+        <v>0.002803979536977489</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>31.5031936888759</v>
+        <v>31.60427266666667</v>
       </c>
       <c r="H6">
-        <v>31.5031936888759</v>
+        <v>94.81281800000001</v>
       </c>
       <c r="I6">
-        <v>0.329444154893293</v>
+        <v>0.1824252265675234</v>
       </c>
       <c r="J6">
-        <v>0.329444154893293</v>
+        <v>0.1824252265675234</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>32.2492471506313</v>
+        <v>127.6999736666667</v>
       </c>
       <c r="N6">
-        <v>32.2492471506313</v>
+        <v>383.099921</v>
       </c>
       <c r="O6">
-        <v>0.8869022057599736</v>
+        <v>0.9554352891750322</v>
       </c>
       <c r="P6">
-        <v>0.8869022057599736</v>
+        <v>0.9554352891750322</v>
       </c>
       <c r="Q6">
-        <v>1015.954279306767</v>
+        <v>4035.864787287487</v>
       </c>
       <c r="R6">
-        <v>1015.954279306767</v>
+        <v>36322.78308558738</v>
       </c>
       <c r="S6">
-        <v>0.292184747649592</v>
+        <v>0.1742954990983625</v>
       </c>
       <c r="T6">
-        <v>0.292184747649592</v>
+        <v>0.1742954990983625</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>31.5031936888759</v>
+        <v>31.60427266666667</v>
       </c>
       <c r="H7">
-        <v>31.5031936888759</v>
+        <v>94.81281800000001</v>
       </c>
       <c r="I7">
-        <v>0.329444154893293</v>
+        <v>0.1824252265675234</v>
       </c>
       <c r="J7">
-        <v>0.329444154893293</v>
+        <v>0.1824252265675234</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.41958075203849</v>
+        <v>0.4321196666666667</v>
       </c>
       <c r="N7">
-        <v>0.41958075203849</v>
+        <v>1.296359</v>
       </c>
       <c r="O7">
-        <v>0.01153909400548846</v>
+        <v>0.003233065495828321</v>
       </c>
       <c r="P7">
-        <v>0.01153909400548846</v>
+        <v>0.003233065495828321</v>
       </c>
       <c r="Q7">
-        <v>13.21813369959276</v>
+        <v>13.65682776996245</v>
       </c>
       <c r="R7">
-        <v>13.21813369959276</v>
+        <v>122.911449929662</v>
       </c>
       <c r="S7">
-        <v>0.003801487072872408</v>
+        <v>0.0005897927055841238</v>
       </c>
       <c r="T7">
-        <v>0.003801487072872408</v>
+        <v>0.0005897927055841238</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +894,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>31.5031936888759</v>
+        <v>31.60427266666667</v>
       </c>
       <c r="H8">
-        <v>31.5031936888759</v>
+        <v>94.81281800000001</v>
       </c>
       <c r="I8">
-        <v>0.329444154893293</v>
+        <v>0.1824252265675234</v>
       </c>
       <c r="J8">
-        <v>0.329444154893293</v>
+        <v>0.1824252265675234</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.28076905806601</v>
+        <v>4.77305</v>
       </c>
       <c r="N8">
-        <v>3.28076905806601</v>
+        <v>14.31915</v>
       </c>
       <c r="O8">
-        <v>0.09022602297030229</v>
+        <v>0.03571136528892854</v>
       </c>
       <c r="P8">
-        <v>0.09022602297030229</v>
+        <v>0.03571136528892854</v>
       </c>
       <c r="Q8">
-        <v>103.3547030847245</v>
+        <v>150.8487736516334</v>
       </c>
       <c r="R8">
-        <v>103.3547030847245</v>
+        <v>1357.6389628647</v>
       </c>
       <c r="S8">
-        <v>0.02972443588683408</v>
+        <v>0.006514653903868378</v>
       </c>
       <c r="T8">
-        <v>0.02972443588683408</v>
+        <v>0.006514653903868378</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +956,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>31.5031936888759</v>
+        <v>31.60427266666667</v>
       </c>
       <c r="H9">
-        <v>31.5031936888759</v>
+        <v>94.81281800000001</v>
       </c>
       <c r="I9">
-        <v>0.329444154893293</v>
+        <v>0.1824252265675234</v>
       </c>
       <c r="J9">
-        <v>0.329444154893293</v>
+        <v>0.1824252265675234</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.412075094186404</v>
+        <v>0.751186</v>
       </c>
       <c r="N9">
-        <v>0.412075094186404</v>
+        <v>2.253558</v>
       </c>
       <c r="O9">
-        <v>0.01133267726423549</v>
+        <v>0.00562028004021099</v>
       </c>
       <c r="P9">
-        <v>0.01133267726423549</v>
+        <v>0.00562028004021099</v>
       </c>
       <c r="Q9">
-        <v>12.98168150651606</v>
+        <v>23.74068716738267</v>
       </c>
       <c r="R9">
-        <v>12.98168150651606</v>
+        <v>213.666184506444</v>
       </c>
       <c r="S9">
-        <v>0.003733484283994497</v>
+        <v>0.001025280859708419</v>
       </c>
       <c r="T9">
-        <v>0.003733484283994497</v>
+        <v>0.001025280859708419</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,10 +1018,10 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
@@ -1030,49 +1030,49 @@
         <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>55.0877492043486</v>
+        <v>0.02528933333333333</v>
       </c>
       <c r="H10">
-        <v>55.0877492043486</v>
+        <v>0.075868</v>
       </c>
       <c r="I10">
-        <v>0.5760792750358088</v>
+        <v>0.0001459743247925071</v>
       </c>
       <c r="J10">
-        <v>0.5760792750358088</v>
+        <v>0.0001459743247925071</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>32.2492471506313</v>
+        <v>127.6999736666667</v>
       </c>
       <c r="N10">
-        <v>32.2492471506313</v>
+        <v>383.099921</v>
       </c>
       <c r="O10">
-        <v>0.8869022057599736</v>
+        <v>0.9554352891750322</v>
       </c>
       <c r="P10">
-        <v>0.8869022057599736</v>
+        <v>0.9554352891750322</v>
       </c>
       <c r="Q10">
-        <v>1776.538439063031</v>
+        <v>3.229447200714222</v>
       </c>
       <c r="R10">
-        <v>1776.538439063031</v>
+        <v>29.065024806428</v>
       </c>
       <c r="S10">
-        <v>0.5109259797218653</v>
+        <v>0.0001394690212202591</v>
       </c>
       <c r="T10">
-        <v>0.5109259797218653</v>
+        <v>0.0001394690212202591</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,10 +1080,10 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
@@ -1092,49 +1092,49 @@
         <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>55.0877492043486</v>
+        <v>0.02528933333333333</v>
       </c>
       <c r="H11">
-        <v>55.0877492043486</v>
+        <v>0.075868</v>
       </c>
       <c r="I11">
-        <v>0.5760792750358088</v>
+        <v>0.0001459743247925071</v>
       </c>
       <c r="J11">
-        <v>0.5760792750358088</v>
+        <v>0.0001459743247925071</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.41958075203849</v>
+        <v>0.4321196666666667</v>
       </c>
       <c r="N11">
-        <v>0.41958075203849</v>
+        <v>1.296359</v>
       </c>
       <c r="O11">
-        <v>0.01153909400548846</v>
+        <v>0.003233065495828321</v>
       </c>
       <c r="P11">
-        <v>0.01153909400548846</v>
+        <v>0.003233065495828321</v>
       </c>
       <c r="Q11">
-        <v>23.11375923926831</v>
+        <v>0.01092801829022222</v>
       </c>
       <c r="R11">
-        <v>23.11375923926831</v>
+        <v>0.09835216461200001</v>
       </c>
       <c r="S11">
-        <v>0.006647432909251837</v>
+        <v>4.719445527634913E-07</v>
       </c>
       <c r="T11">
-        <v>0.006647432909251837</v>
+        <v>4.719445527634913E-07</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,61 +1142,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>55.0877492043486</v>
+        <v>0.02528933333333333</v>
       </c>
       <c r="H12">
-        <v>55.0877492043486</v>
+        <v>0.075868</v>
       </c>
       <c r="I12">
-        <v>0.5760792750358088</v>
+        <v>0.0001459743247925071</v>
       </c>
       <c r="J12">
-        <v>0.5760792750358088</v>
+        <v>0.0001459743247925071</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.28076905806601</v>
+        <v>4.77305</v>
       </c>
       <c r="N12">
-        <v>3.28076905806601</v>
+        <v>14.31915</v>
       </c>
       <c r="O12">
-        <v>0.09022602297030229</v>
+        <v>0.03571136528892854</v>
       </c>
       <c r="P12">
-        <v>0.09022602297030229</v>
+        <v>0.03571136528892854</v>
       </c>
       <c r="Q12">
-        <v>180.7301830681273</v>
+        <v>0.1207072524666667</v>
       </c>
       <c r="R12">
-        <v>180.7301830681273</v>
+        <v>1.0863652722</v>
       </c>
       <c r="S12">
-        <v>0.05197734190209597</v>
+        <v>5.212942435469918E-06</v>
       </c>
       <c r="T12">
-        <v>0.05197734190209597</v>
+        <v>5.212942435469918E-06</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1204,309 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.02528933333333333</v>
+      </c>
+      <c r="H13">
+        <v>0.075868</v>
+      </c>
+      <c r="I13">
+        <v>0.0001459743247925071</v>
+      </c>
+      <c r="J13">
+        <v>0.0001459743247925071</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.751186</v>
+      </c>
+      <c r="N13">
+        <v>2.253558</v>
+      </c>
+      <c r="O13">
+        <v>0.00562028004021099</v>
+      </c>
+      <c r="P13">
+        <v>0.00562028004021099</v>
+      </c>
+      <c r="Q13">
+        <v>0.01899699314933333</v>
+      </c>
+      <c r="R13">
+        <v>0.170972938344</v>
+      </c>
+      <c r="S13">
+        <v>8.204165840146038E-07</v>
+      </c>
+      <c r="T13">
+        <v>8.204165840146038E-07</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>55.182874</v>
+      </c>
+      <c r="H14">
+        <v>165.548622</v>
+      </c>
+      <c r="I14">
+        <v>0.3185249158641322</v>
+      </c>
+      <c r="J14">
+        <v>0.3185249158641322</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>127.6999736666667</v>
+      </c>
+      <c r="N14">
+        <v>383.099921</v>
+      </c>
+      <c r="O14">
+        <v>0.9554352891750322</v>
+      </c>
+      <c r="P14">
+        <v>0.9554352891750322</v>
+      </c>
+      <c r="Q14">
+        <v>7046.851556650984</v>
+      </c>
+      <c r="R14">
+        <v>63421.66400985886</v>
+      </c>
+      <c r="S14">
+        <v>0.3043299450981</v>
+      </c>
+      <c r="T14">
+        <v>0.3043299450981</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>55.182874</v>
+      </c>
+      <c r="H15">
+        <v>165.548622</v>
+      </c>
+      <c r="I15">
+        <v>0.3185249158641322</v>
+      </c>
+      <c r="J15">
+        <v>0.3185249158641322</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.4321196666666667</v>
+      </c>
+      <c r="N15">
+        <v>1.296359</v>
+      </c>
+      <c r="O15">
+        <v>0.003233065495828321</v>
+      </c>
+      <c r="P15">
+        <v>0.003233065495828321</v>
+      </c>
+      <c r="Q15">
+        <v>23.84560511858867</v>
+      </c>
+      <c r="R15">
+        <v>214.610446067298</v>
+      </c>
+      <c r="S15">
+        <v>0.001029811915041945</v>
+      </c>
+      <c r="T15">
+        <v>0.001029811915041945</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>55.0877492043486</v>
-      </c>
-      <c r="H13">
-        <v>55.0877492043486</v>
-      </c>
-      <c r="I13">
-        <v>0.5760792750358088</v>
-      </c>
-      <c r="J13">
-        <v>0.5760792750358088</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>0.412075094186404</v>
-      </c>
-      <c r="N13">
-        <v>0.412075094186404</v>
-      </c>
-      <c r="O13">
-        <v>0.01133267726423549</v>
-      </c>
-      <c r="P13">
-        <v>0.01133267726423549</v>
-      </c>
-      <c r="Q13">
-        <v>22.70028944189895</v>
-      </c>
-      <c r="R13">
-        <v>22.70028944189895</v>
-      </c>
-      <c r="S13">
-        <v>0.006528520502595576</v>
-      </c>
-      <c r="T13">
-        <v>0.006528520502595576</v>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>55.182874</v>
+      </c>
+      <c r="H16">
+        <v>165.548622</v>
+      </c>
+      <c r="I16">
+        <v>0.3185249158641322</v>
+      </c>
+      <c r="J16">
+        <v>0.3185249158641322</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>4.77305</v>
+      </c>
+      <c r="N16">
+        <v>14.31915</v>
+      </c>
+      <c r="O16">
+        <v>0.03571136528892854</v>
+      </c>
+      <c r="P16">
+        <v>0.03571136528892854</v>
+      </c>
+      <c r="Q16">
+        <v>263.3906167457</v>
+      </c>
+      <c r="R16">
+        <v>2370.5155507113</v>
+      </c>
+      <c r="S16">
+        <v>0.01137495962404925</v>
+      </c>
+      <c r="T16">
+        <v>0.01137495962404925</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>55.182874</v>
+      </c>
+      <c r="H17">
+        <v>165.548622</v>
+      </c>
+      <c r="I17">
+        <v>0.3185249158641322</v>
+      </c>
+      <c r="J17">
+        <v>0.3185249158641322</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.751186</v>
+      </c>
+      <c r="N17">
+        <v>2.253558</v>
+      </c>
+      <c r="O17">
+        <v>0.00562028004021099</v>
+      </c>
+      <c r="P17">
+        <v>0.00562028004021099</v>
+      </c>
+      <c r="Q17">
+        <v>41.452602388564</v>
+      </c>
+      <c r="R17">
+        <v>373.073421497076</v>
+      </c>
+      <c r="S17">
+        <v>0.001790199226941067</v>
+      </c>
+      <c r="T17">
+        <v>0.001790199226941067</v>
       </c>
     </row>
   </sheetData>
